--- a/resources/agent-canvas/MongoDB-combined-agentic-AI-planning-canvas.xlsx
+++ b/resources/agent-canvas/MongoDB-combined-agentic-AI-planning-canvas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="627">
   <si>
     <t>Agent POC Canvas</t>
   </si>
@@ -821,7 +821,7 @@
     <t>What types of memory at what scale?</t>
   </si>
   <si>
-    <t>(e.g., "Session memory in Redis, long-term in MongoDB, embeddings in vector DB")</t>
+    <t>(e.g., "Session and long-term memory in Atlas, embeddings in Atlas vector store")</t>
   </si>
   <si>
     <t>Update Strategy</t>
@@ -5769,39 +5769,38 @@
       <c r="U10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="19"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="13"/>
@@ -5815,22 +5814,20 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
+      <c r="U12" s="25"/>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>16</v>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="D13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="13"/>
@@ -5844,22 +5841,18 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
+      <c r="U13" s="25"/>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>19</v>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="13"/>
@@ -5873,22 +5866,18 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
-      <c r="U14" s="26"/>
+      <c r="U14" s="25"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>22</v>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="28" t="s">
-        <v>23</v>
-      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="13"/>
@@ -5902,22 +5891,16 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
-      <c r="U15" s="26"/>
+      <c r="U15" s="25"/>
     </row>
     <row r="16">
-      <c r="A16" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="32"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="13"/>
@@ -5934,117 +5917,115 @@
       <c r="U16" s="26"/>
     </row>
     <row r="17">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="26"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="19"/>
     </row>
     <row r="20">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="13"/>
+      <c r="A20" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="19"/>
     </row>
     <row r="21">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -6056,980 +6037,834 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
+      <c r="U21" s="26"/>
     </row>
     <row r="22">
-      <c r="A22" s="32"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="13"/>
+      <c r="A22" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="51"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="26"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="13"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" ht="50.25" customHeight="1">
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="14"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="40"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="19"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="19"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="58"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="26"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" ht="50.25" customHeight="1">
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="19"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-    </row>
-    <row r="30" ht="30.0" customHeight="1">
-      <c r="A30" s="67" t="s">
+      <c r="L23" s="19"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+    </row>
+    <row r="24" ht="30.0" customHeight="1">
+      <c r="A24" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="67" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="73"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="68"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="46"/>
+      <c r="U24" s="50"/>
+    </row>
+    <row r="25" ht="30.0" customHeight="1">
+      <c r="A25" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="84"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="U25" s="84"/>
+    </row>
+    <row r="26" ht="63.75" customHeight="1">
+      <c r="A26" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="87"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="87"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" s="97"/>
+    </row>
+    <row r="27" ht="63.75" customHeight="1">
+      <c r="A27" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="87"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" s="87"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="T27" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="U27" s="87"/>
+    </row>
+    <row r="28" ht="63.75" customHeight="1">
+      <c r="A28" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="87"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" s="87"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="T28" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="U28" s="87"/>
+    </row>
+    <row r="29" ht="63.75" customHeight="1">
+      <c r="A29" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="100"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="100"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="100"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="T29" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U29" s="100"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="74"/>
       <c r="K30" s="74"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="68"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="46"/>
-      <c r="U30" s="50"/>
-    </row>
-    <row r="31" ht="30.0" customHeight="1">
-      <c r="A31" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="73"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="78"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="106"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="74"/>
       <c r="K31" s="74"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="O31" s="84"/>
-      <c r="P31" s="73"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="74"/>
       <c r="Q31" s="74"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="U31" s="84"/>
-    </row>
-    <row r="32" ht="63.75" customHeight="1">
-      <c r="A32" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="87"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="N32" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="O32" s="87"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="T32" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="U32" s="97"/>
-    </row>
-    <row r="33" ht="63.75" customHeight="1">
-      <c r="A33" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="87"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="O33" s="87"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="T33" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="U33" s="87"/>
-    </row>
-    <row r="34" ht="63.75" customHeight="1">
+      <c r="R31" s="74"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="109"/>
+    </row>
+    <row r="32" ht="29.25" customHeight="1">
+      <c r="A32" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="68"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32" s="68"/>
+      <c r="U32" s="69"/>
+    </row>
+    <row r="33" ht="29.25" customHeight="1">
+      <c r="A33" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="N33" s="112"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="T33" s="112"/>
+      <c r="U33" s="113"/>
+    </row>
+    <row r="34" ht="69.0" customHeight="1">
       <c r="A34" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="86" t="s">
-        <v>73</v>
+        <v>104</v>
+      </c>
+      <c r="B34" s="94" t="s">
+        <v>105</v>
       </c>
       <c r="C34" s="87"/>
       <c r="D34" s="88"/>
       <c r="E34" s="89"/>
       <c r="F34" s="90"/>
       <c r="G34" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="86" t="s">
-        <v>76</v>
+        <v>107</v>
+      </c>
+      <c r="H34" s="94" t="s">
+        <v>108</v>
       </c>
       <c r="I34" s="87"/>
       <c r="J34" s="91"/>
       <c r="K34" s="92"/>
       <c r="L34" s="93"/>
       <c r="M34" s="85" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="N34" s="94" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="O34" s="87"/>
       <c r="P34" s="91"/>
       <c r="Q34" s="92"/>
       <c r="R34" s="93"/>
       <c r="S34" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="T34" s="86" t="s">
-        <v>82</v>
+        <v>113</v>
+      </c>
+      <c r="T34" s="94" t="s">
+        <v>114</v>
       </c>
       <c r="U34" s="87"/>
     </row>
-    <row r="35" ht="63.75" customHeight="1">
-      <c r="A35" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="100"/>
+    <row r="35" ht="69.0" customHeight="1">
+      <c r="A35" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="87"/>
       <c r="D35" s="88"/>
       <c r="E35" s="89"/>
       <c r="F35" s="90"/>
-      <c r="G35" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="100"/>
+      <c r="G35" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="87"/>
       <c r="J35" s="91"/>
       <c r="K35" s="92"/>
       <c r="L35" s="93"/>
-      <c r="M35" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="N35" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="O35" s="100"/>
+      <c r="M35" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="N35" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35" s="87"/>
       <c r="P35" s="91"/>
       <c r="Q35" s="92"/>
       <c r="R35" s="93"/>
-      <c r="S35" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="T35" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U35" s="100"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="76"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="77"/>
-      <c r="T36" s="77"/>
-      <c r="U36" s="78"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="106"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="109"/>
-    </row>
-    <row r="38" ht="29.25" customHeight="1">
-      <c r="A38" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="68"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="73"/>
+      <c r="S35" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="T35" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="U35" s="87"/>
+    </row>
+    <row r="36" ht="69.0" customHeight="1">
+      <c r="A36" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="87"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="87"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="N36" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="O36" s="87"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="T36" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="U36" s="87"/>
+    </row>
+    <row r="37" ht="69.0" customHeight="1">
+      <c r="A37" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="100"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="100"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="N37" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="O37" s="100"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="T37" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="U37" s="100"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="118"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="74"/>
       <c r="K38" s="74"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="N38" s="68"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="73"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="74"/>
       <c r="Q38" s="74"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="T38" s="68"/>
-      <c r="U38" s="69"/>
-    </row>
-    <row r="39" ht="29.25" customHeight="1">
-      <c r="A39" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="112"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="73"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="78"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="122"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="74"/>
       <c r="K39" s="74"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="117" t="s">
-        <v>102</v>
-      </c>
-      <c r="N39" s="112"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="T39" s="112"/>
-      <c r="U39" s="113"/>
-    </row>
-    <row r="40" ht="69.0" customHeight="1">
-      <c r="A40" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="N40" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="O40" s="87"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="T40" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="U40" s="87"/>
-    </row>
-    <row r="41" ht="69.0" customHeight="1">
-      <c r="A41" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="87"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="H41" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="N41" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="O41" s="87"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="T41" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="U41" s="87"/>
-    </row>
-    <row r="42" ht="69.0" customHeight="1">
-      <c r="A42" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="I42" s="87"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="N42" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="O42" s="87"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="T42" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="U42" s="87"/>
-    </row>
-    <row r="43" ht="69.0" customHeight="1">
-      <c r="A43" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="H43" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" s="100"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="N43" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="O43" s="100"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="T43" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="U43" s="100"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="118"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="77"/>
-      <c r="T44" s="77"/>
-      <c r="U44" s="78"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="122"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="128"/>
-      <c r="T45" s="127"/>
-      <c r="U45" s="129"/>
-    </row>
-    <row r="46" ht="36.0" customHeight="1">
-      <c r="D46" s="122"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="89"/>
-      <c r="T46" s="103"/>
-      <c r="U46" s="130"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="76"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="102"/>
-      <c r="R47" s="103"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="131"/>
-      <c r="U47" s="132"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="133"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="102"/>
-      <c r="R48" s="103"/>
-      <c r="S48" s="134"/>
-      <c r="T48" s="131"/>
-      <c r="U48" s="132"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="135" t="s">
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="127"/>
+      <c r="S39" s="128"/>
+      <c r="T39" s="127"/>
+      <c r="U39" s="129"/>
+    </row>
+    <row r="40" ht="36.0" customHeight="1">
+      <c r="D40" s="122"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="130"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="102"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="131"/>
+      <c r="U41" s="132"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="133"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="131"/>
+      <c r="U42" s="132"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="102"/>
-      <c r="R49" s="103"/>
-      <c r="S49" s="136"/>
-      <c r="T49" s="137"/>
-      <c r="U49" s="138"/>
-    </row>
-    <row r="50" ht="57.0" customHeight="1">
-      <c r="A50" s="85" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="136"/>
+      <c r="T43" s="137"/>
+      <c r="U43" s="138"/>
+    </row>
+    <row r="44" ht="57.0" customHeight="1">
+      <c r="A44" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="139" t="s">
+      <c r="B44" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="142"/>
-      <c r="L50" s="142"/>
-      <c r="M50" s="142"/>
-      <c r="N50" s="142"/>
-      <c r="O50" s="142"/>
-      <c r="P50" s="142"/>
-      <c r="Q50" s="143"/>
-      <c r="R50" s="136"/>
-      <c r="S50" s="136"/>
-      <c r="T50" s="144"/>
-      <c r="U50" s="138"/>
-    </row>
-    <row r="51" ht="57.0" customHeight="1">
-      <c r="A51" s="85" t="s">
+      <c r="C44" s="87"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="142"/>
+      <c r="O44" s="142"/>
+      <c r="P44" s="142"/>
+      <c r="Q44" s="143"/>
+      <c r="R44" s="136"/>
+      <c r="S44" s="136"/>
+      <c r="T44" s="144"/>
+      <c r="U44" s="138"/>
+    </row>
+    <row r="45" ht="57.0" customHeight="1">
+      <c r="A45" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="139" t="s">
+      <c r="B45" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="92"/>
-      <c r="P51" s="92"/>
-      <c r="Q51" s="146"/>
-      <c r="R51" s="147"/>
-      <c r="S51" s="136"/>
-      <c r="T51" s="144"/>
-      <c r="U51" s="138"/>
-    </row>
-    <row r="52" ht="57.0" customHeight="1">
-      <c r="A52" s="85" t="s">
+      <c r="C45" s="87"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="146"/>
+      <c r="R45" s="147"/>
+      <c r="S45" s="136"/>
+      <c r="T45" s="144"/>
+      <c r="U45" s="138"/>
+    </row>
+    <row r="46" ht="57.0" customHeight="1">
+      <c r="A46" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="139" t="s">
+      <c r="B46" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="87"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="145"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="92"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="92"/>
-      <c r="P52" s="92"/>
-      <c r="Q52" s="146"/>
-      <c r="R52" s="147"/>
-      <c r="S52" s="136"/>
-      <c r="T52" s="144"/>
-      <c r="U52" s="138"/>
-    </row>
-    <row r="53" ht="57.0" customHeight="1">
-      <c r="A53" s="85" t="s">
+      <c r="C46" s="87"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="146"/>
+      <c r="R46" s="147"/>
+      <c r="S46" s="136"/>
+      <c r="T46" s="144"/>
+      <c r="U46" s="138"/>
+    </row>
+    <row r="47" ht="57.0" customHeight="1">
+      <c r="A47" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="139" t="s">
+      <c r="B47" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="92"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="92"/>
-      <c r="N53" s="92"/>
-      <c r="O53" s="92"/>
-      <c r="P53" s="92"/>
-      <c r="Q53" s="146"/>
-      <c r="R53" s="147"/>
-      <c r="S53" s="136"/>
-      <c r="T53" s="144"/>
-      <c r="U53" s="138"/>
-    </row>
-    <row r="54" ht="57.0" customHeight="1">
-      <c r="A54" s="98" t="s">
+      <c r="C47" s="87"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="146"/>
+      <c r="R47" s="147"/>
+      <c r="S47" s="136"/>
+      <c r="T47" s="144"/>
+      <c r="U47" s="138"/>
+    </row>
+    <row r="48" ht="57.0" customHeight="1">
+      <c r="A48" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="148" t="s">
+      <c r="B48" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="100"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="92"/>
-      <c r="M54" s="92"/>
-      <c r="N54" s="92"/>
-      <c r="O54" s="92"/>
-      <c r="P54" s="92"/>
-      <c r="Q54" s="146"/>
-      <c r="R54" s="147"/>
-      <c r="S54" s="136"/>
-      <c r="T54" s="144"/>
-      <c r="U54" s="138"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="146"/>
+      <c r="R48" s="147"/>
+      <c r="S48" s="136"/>
+      <c r="T48" s="144"/>
+      <c r="U48" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="S28:U29"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="A28:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G28:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="M28:O29"/>
-    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="S22:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A39:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="M22:O23"/>
+    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" location=":~:text=Fire%2C%20ready%2C%20aim,AI%20is%20Agile." ref="A3"/>
     <hyperlink r:id="rId2" location="mlops-stack-canvas" ref="A4"/>
-    <hyperlink r:id="rId3" ref="B19"/>
-    <hyperlink r:id="rId4" ref="B20"/>
-    <hyperlink r:id="rId5" ref="B21"/>
+    <hyperlink r:id="rId3" ref="B13"/>
+    <hyperlink r:id="rId4" ref="B14"/>
+    <hyperlink r:id="rId5" ref="B15"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.1" footer="0.0" header="0.0" left="0.1" right="0.1" top="0.75"/>
+  <pageSetup fitToHeight="0" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId6"/>
 </worksheet>
 </file>
@@ -8775,6 +8610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10433,6 +10269,9 @@
     <hyperlink r:id="rId3" ref="B11"/>
     <hyperlink r:id="rId4" ref="B12"/>
   </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.1" footer="0.0" header="0.0" left="0.1" right="0.1" top="0.75"/>
+  <pageSetup fitToHeight="0" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId5"/>
 </worksheet>
 </file>
